--- a/Sagacity_0.2.xlsx
+++ b/Sagacity_0.2.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Documents\GitHub\sagacity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2760BE26-E4F1-4D78-B8C4-1CFD9ABF29A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6CE8F0-2A22-4999-BB3B-F2314366FB2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{D0780601-15C0-441A-91EF-C09DCE388F2C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Inputs" sheetId="1" r:id="rId1"/>
-    <sheet name="Decision Tree" sheetId="2" r:id="rId2"/>
-    <sheet name="Change Log" sheetId="4" r:id="rId3"/>
-    <sheet name="GNU GPL" sheetId="3" r:id="rId4"/>
+    <sheet name="Start Here" sheetId="5" r:id="rId1"/>
+    <sheet name="Inputs" sheetId="1" r:id="rId2"/>
+    <sheet name="Decision Tree" sheetId="2" r:id="rId3"/>
+    <sheet name="Change Log" sheetId="4" r:id="rId4"/>
+    <sheet name="GNU GPL" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029" calcMode="autoNoTable"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="598">
   <si>
     <t>Probability of severe illness / hospitalization from Covid-19</t>
   </si>
@@ -2101,6 +2102,285 @@
   <si>
     <t>Probability of contracting Covid-19 AFTER vaccinating</t>
   </si>
+  <si>
+    <t>decision-making about whether or not to receive any of</t>
+  </si>
+  <si>
+    <t>the Covid-19 vaccines.</t>
+  </si>
+  <si>
+    <t>risk assessment about your own likelihood of contracting</t>
+  </si>
+  <si>
+    <t>Covid-19 (after vaccinating or without vaccinating), being</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hospitalized with Covid-19, dying from Covid-19, and the </t>
+  </si>
+  <si>
+    <t>likelihood of suffering severe, long-term effects from EITHER</t>
+  </si>
+  <si>
+    <t>Then, enter risk impact scores for four different risk events:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   your family, friends and society</t>
+  </si>
+  <si>
+    <t>events are lower scores relative to you dying from Covid-19)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Purpose:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>This spreadsheet is intended to inform your</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Instructions:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Use high-quality research sources to inform your </t>
+    </r>
+  </si>
+  <si>
+    <t>Covid-19 OR from receiving a Covid-19 vaccination.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dying</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from Covid-19 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(a worst-case, maximum score)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Getting infected</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with Covid-19 and exposing that virus to</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Getting hospitalized</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with Covid-19 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(and recovering)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Having a severe, long-term effect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(from Covid-19 OR the </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Covid-19 vaccination)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Your death creates a maximum impact score</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. All other risk</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -2112,7 +2392,7 @@
     <numFmt numFmtId="166" formatCode="0.00000"/>
     <numFmt numFmtId="167" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2326,6 +2606,31 @@
       <i/>
       <sz val="16"/>
       <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2625,7 +2930,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2707,12 +3012,6 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="7" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2776,10 +3075,16 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2794,6 +3099,9 @@
     <xf numFmtId="0" fontId="17" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2820,6 +3128,55 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>37732</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D7D876D-33B5-4CC4-BF89-5C468E611975}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1"/>
+          <a:ext cx="7743825" cy="4346206"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4286,11 +4643,185 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FED7A13-E933-4564-86CB-A1CE9990B42E}">
+  <dimension ref="A3:N36"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetData>
+    <row r="3" spans="14:14" x14ac:dyDescent="0.75">
+      <c r="N3" s="90" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="4" spans="14:14" x14ac:dyDescent="0.75">
+      <c r="N4" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="5" spans="14:14" x14ac:dyDescent="0.75">
+      <c r="N5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="7" spans="14:14" x14ac:dyDescent="0.75">
+      <c r="N7" s="90" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="8" spans="14:14" x14ac:dyDescent="0.75">
+      <c r="N8" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="9" spans="14:14" x14ac:dyDescent="0.75">
+      <c r="N9" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="10" spans="14:14" x14ac:dyDescent="0.75">
+      <c r="N10" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="11" spans="14:14" x14ac:dyDescent="0.75">
+      <c r="N11" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="12" spans="14:14" x14ac:dyDescent="0.75">
+      <c r="N12" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="14" spans="14:14" x14ac:dyDescent="0.75">
+      <c r="N14" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="15" spans="14:14" x14ac:dyDescent="0.75">
+      <c r="N15" s="91" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="16" spans="14:14" x14ac:dyDescent="0.75">
+      <c r="N16" s="91" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="N17" s="91" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="N18" s="91" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="N19" s="91" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="N20" s="91" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="N22" s="92" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="N23" s="92" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="A25" s="31" t="str">
+        <f>CONCATENATE("Version ",'Change Log'!$B$3," – © ",YEAR('Change Log'!$A$3),", William W. Davis, MSPM, PMP")</f>
+        <v>Version 0.2 – © 2021, William W. Davis, MSPM, PMP</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="A26" s="32" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="A27" s="32" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="A28" s="32" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="A29" s="32" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="A30" s="32" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="A31" s="33" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="A32" s="33" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A33" s="33" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A34" s="33" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A35" s="33" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A36" s="33" t="s">
+        <v>544</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A26" r:id="rId1" display="Download more FREE Statistical PERT templates at https://www.statisticalpert.com" xr:uid="{4AF9D1F8-0631-4DD8-BAEB-0DC3D14F2AA4}"/>
+    <hyperlink ref="A27" r:id="rId2" xr:uid="{759FD136-4936-465C-9D9E-24A044D7859D}"/>
+    <hyperlink ref="A28" r:id="rId3" xr:uid="{BA9C752B-341A-4076-9CC1-EEDEC270BC5A}"/>
+    <hyperlink ref="A30" r:id="rId4" location="newsletter" display="Follow Statistical PERT on Twitter to learn when new updates are released" xr:uid="{008BDD1B-03D9-4E50-91AD-8858755AFA96}"/>
+    <hyperlink ref="A29" r:id="rId5" display="Connect with me on LinkedIn" xr:uid="{8D0A7987-6C46-4807-B8C3-A8CE983FA1C0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C9A8AC-38C5-4AA5-915B-063DC1788661}">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A30" sqref="A19:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -4302,253 +4833,253 @@
     </row>
     <row r="2" spans="1:13" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
     <row r="3" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="64" t="s">
         <v>553</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="68"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="66"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A4" s="69">
+      <c r="A4" s="67">
         <v>2E-3</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="39" t="s">
         <v>559</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="70"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="68"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A5" s="69">
+      <c r="A5" s="67">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="70"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="68"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A6" s="69">
+      <c r="A6" s="67">
         <v>0.02</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="70"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="68"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A7" s="69">
+      <c r="A7" s="67">
         <v>0.1</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="70"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="68"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A8" s="69">
+      <c r="A8" s="67">
         <v>0.02</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="70"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="68"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A9" s="69">
+      <c r="A9" s="67">
         <f>A10*0.1</f>
         <v>2.0000000000000004E-2</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="39" t="s">
         <v>579</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="70"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="68"/>
     </row>
     <row r="10" spans="1:13" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A10" s="71">
+      <c r="A10" s="69">
         <v>0.2</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="73"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="71"/>
     </row>
     <row r="11" spans="1:13" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
     <row r="12" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="64" t="s">
         <v>551</v>
       </c>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="68"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="66"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A13" s="74">
+      <c r="A13" s="72">
         <v>1000</v>
       </c>
-      <c r="B13" s="75" t="s">
+      <c r="B13" s="73" t="s">
         <v>552</v>
       </c>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="76"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="74"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A14" s="74">
+      <c r="A14" s="72">
         <v>75</v>
       </c>
-      <c r="B14" s="75" t="s">
+      <c r="B14" s="73" t="s">
         <v>555</v>
       </c>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="76"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="74"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A15" s="74">
+      <c r="A15" s="72">
         <v>333</v>
       </c>
-      <c r="B15" s="75" t="s">
+      <c r="B15" s="73" t="s">
         <v>556</v>
       </c>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="76"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="74"/>
     </row>
     <row r="16" spans="1:13" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A16" s="77">
+      <c r="A16" s="75">
         <v>25</v>
       </c>
-      <c r="B16" s="78" t="s">
+      <c r="B16" s="76" t="s">
         <v>554</v>
       </c>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="78"/>
-      <c r="K16" s="78"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="79"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="77"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A19" s="31" t="str">
@@ -4643,7 +5174,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7D3ECE-B45F-4CB4-A7B2-CD0816DC0E04}">
   <dimension ref="A1:M86"/>
   <sheetViews>
@@ -4667,13 +5198,13 @@
       <c r="A1" s="30" t="s">
         <v>561</v>
       </c>
-      <c r="K1" s="62" t="s">
+      <c r="K1" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="63" t="s">
+      <c r="L1" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="64" t="s">
+      <c r="M1" s="62" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4682,79 +5213,79 @@
         <f>Inputs!A4</f>
         <v>2E-3</v>
       </c>
-      <c r="K2" s="45">
+      <c r="K2" s="43">
         <f>E8*G2</f>
         <v>4.000000000000001E-5</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="57"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="55"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="78" t="s">
         <v>549</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="82"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="80"/>
       <c r="G3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="37"/>
-      <c r="L3" s="39">
+      <c r="K3" s="35"/>
+      <c r="L3" s="37">
         <f>K2*K4</f>
         <v>4.1000000000000009E-2</v>
       </c>
-      <c r="M3" s="40" t="s">
+      <c r="M3" s="38" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="81" t="s">
         <v>550</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="84"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="83"/>
       <c r="G4" s="9">
         <f>Inputs!A13</f>
         <v>1000</v>
       </c>
-      <c r="K4" s="47">
+      <c r="K4" s="45">
         <f>E10+G4</f>
         <v>1025</v>
       </c>
-      <c r="L4" s="48"/>
-      <c r="M4" s="58"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="56"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="81" t="s">
         <v>578</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="84"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="53"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="83"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="51"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A6" s="85" t="str">
+      <c r="A6" s="84" t="str">
         <f>IF(C18&lt;C44,"You should get vaccinated","You should NOT get vaccinated")</f>
         <v>You should get vaccinated</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
       <c r="D6" s="86"/>
       <c r="I6" s="4">
         <f>Inputs!A7+Inputs!A8</f>
         <v>0.12000000000000001</v>
       </c>
-      <c r="K6" s="45">
+      <c r="K6" s="43">
         <f>E8*G8*I6</f>
         <v>8.8800000000000017E-5</v>
       </c>
-      <c r="L6" s="50"/>
-      <c r="M6" s="57"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="55"/>
     </row>
     <row r="7" spans="1:13" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A7" s="87"/>
@@ -4764,12 +5295,12 @@
       <c r="I7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="37"/>
-      <c r="L7" s="39">
+      <c r="K7" s="35"/>
+      <c r="L7" s="37">
         <f>K6*K8</f>
         <v>3.845040000000001E-2</v>
       </c>
-      <c r="M7" s="40" t="s">
+      <c r="M7" s="38" t="s">
         <v>564</v>
       </c>
     </row>
@@ -4786,12 +5317,12 @@
         <f>Inputs!A15</f>
         <v>333</v>
       </c>
-      <c r="K8" s="47">
+      <c r="K8" s="45">
         <f>E10+G10+I8</f>
         <v>433</v>
       </c>
-      <c r="L8" s="48"/>
-      <c r="M8" s="58"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="56"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.75">
       <c r="E9" s="14" t="s">
@@ -4800,9 +5331,9 @@
       <c r="G9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="51"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="53"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="51"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.75">
       <c r="E10" s="9">
@@ -4817,23 +5348,23 @@
         <f>1-I6</f>
         <v>0.88</v>
       </c>
-      <c r="K10" s="45">
+      <c r="K10" s="43">
         <f>E8*G8*I10</f>
         <v>6.5120000000000011E-4</v>
       </c>
-      <c r="L10" s="46"/>
-      <c r="M10" s="57"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="55"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.75">
       <c r="I11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="37"/>
-      <c r="L11" s="39">
+      <c r="K11" s="35"/>
+      <c r="L11" s="37">
         <f>K10*K12</f>
         <v>6.5120000000000011E-2</v>
       </c>
-      <c r="M11" s="40" t="s">
+      <c r="M11" s="38" t="s">
         <v>565</v>
       </c>
     </row>
@@ -4841,12 +5372,12 @@
       <c r="I12" s="5">
         <v>0</v>
       </c>
-      <c r="K12" s="47">
+      <c r="K12" s="45">
         <f>E10+G10+I12</f>
         <v>100</v>
       </c>
-      <c r="L12" s="49"/>
-      <c r="M12" s="58"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="56"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A13" s="2"/>
@@ -4856,9 +5387,9 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="53"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="51"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A14" s="2"/>
@@ -4873,12 +5404,12 @@
         <v>4.0000000000000008E-2</v>
       </c>
       <c r="J14" s="2"/>
-      <c r="K14" s="45">
+      <c r="K14" s="43">
         <f>E8*G16*I14</f>
         <v>7.6880000000000036E-4</v>
       </c>
-      <c r="L14" s="46"/>
-      <c r="M14" s="57"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="55"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A15" s="2"/>
@@ -4892,12 +5423,12 @@
         <v>12</v>
       </c>
       <c r="J15" s="2"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="39">
+      <c r="K15" s="35"/>
+      <c r="L15" s="37">
         <f>K14*K16</f>
         <v>0.27523040000000015</v>
       </c>
-      <c r="M15" s="40" t="s">
+      <c r="M15" s="38" t="s">
         <v>566</v>
       </c>
     </row>
@@ -4917,12 +5448,12 @@
         <v>333</v>
       </c>
       <c r="J16" s="2"/>
-      <c r="K16" s="47">
+      <c r="K16" s="45">
         <f>E10+G18+I16</f>
         <v>358</v>
       </c>
-      <c r="L16" s="48"/>
-      <c r="M16" s="58"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="56"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A17" s="2"/>
@@ -4938,9 +5469,9 @@
       </c>
       <c r="H17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="51"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A18" s="2"/>
@@ -4960,12 +5491,12 @@
         <v>0.96</v>
       </c>
       <c r="J18" s="2"/>
-      <c r="K18" s="45">
+      <c r="K18" s="43">
         <f>E8*G16*I18</f>
         <v>1.8451200000000004E-2</v>
       </c>
-      <c r="L18" s="46"/>
-      <c r="M18" s="57"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="55"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A19" s="2"/>
@@ -4978,12 +5509,12 @@
         <v>13</v>
       </c>
       <c r="J19" s="2"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="39">
+      <c r="K19" s="35"/>
+      <c r="L19" s="37">
         <f>K18*K20</f>
         <v>0.46128000000000013</v>
       </c>
-      <c r="M19" s="40" t="s">
+      <c r="M19" s="38" t="s">
         <v>567</v>
       </c>
     </row>
@@ -5000,12 +5531,12 @@
         <v>0</v>
       </c>
       <c r="J20" s="2"/>
-      <c r="K20" s="47">
+      <c r="K20" s="45">
         <f>E10+G18+I20</f>
         <v>25</v>
       </c>
-      <c r="L20" s="48"/>
-      <c r="M20" s="58"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="56"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A21" s="2"/>
@@ -5017,9 +5548,9 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="51"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A22" s="2"/>
@@ -5035,12 +5566,12 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="45">
+      <c r="K22" s="43">
         <f>E24*G22</f>
         <v>1.9599999999999999E-2</v>
       </c>
-      <c r="L22" s="46"/>
-      <c r="M22" s="57"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="55"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.75">
       <c r="B23" s="2"/>
@@ -5050,12 +5581,12 @@
         <v>12</v>
       </c>
       <c r="J23" s="2"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="39">
+      <c r="K23" s="35"/>
+      <c r="L23" s="37">
         <f>K22*K24</f>
         <v>6.5267999999999997</v>
       </c>
-      <c r="M23" s="40" t="s">
+      <c r="M23" s="38" t="s">
         <v>568</v>
       </c>
     </row>
@@ -5072,12 +5603,12 @@
         <v>333</v>
       </c>
       <c r="J24" s="2"/>
-      <c r="K24" s="47">
+      <c r="K24" s="45">
         <f>E26+G24</f>
         <v>333</v>
       </c>
-      <c r="L24" s="48"/>
-      <c r="M24" s="58"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="56"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A25" s="2"/>
@@ -5086,9 +5617,9 @@
         <v>14</v>
       </c>
       <c r="J25" s="2"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="51"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.75">
       <c r="B26" s="2"/>
@@ -5100,12 +5631,12 @@
         <v>0.98</v>
       </c>
       <c r="J26" s="2"/>
-      <c r="K26" s="45">
+      <c r="K26" s="43">
         <f>E24*G26</f>
         <v>0.96039999999999992</v>
       </c>
-      <c r="L26" s="46"/>
-      <c r="M26" s="59"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="57"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A27" s="2"/>
@@ -5114,12 +5645,12 @@
         <v>13</v>
       </c>
       <c r="J27" s="2"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="39">
+      <c r="K27" s="35"/>
+      <c r="L27" s="37">
         <f>K26*K28</f>
         <v>0</v>
       </c>
-      <c r="M27" s="42" t="s">
+      <c r="M27" s="40" t="s">
         <v>569</v>
       </c>
     </row>
@@ -5130,21 +5661,21 @@
         <v>0</v>
       </c>
       <c r="J28" s="2"/>
-      <c r="K28" s="47">
+      <c r="K28" s="45">
         <f>E26+G28</f>
         <v>0</v>
       </c>
-      <c r="L28" s="48"/>
-      <c r="M28" s="60"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="58"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A29" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B29" s="2"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="53"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="51"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A30" s="2"/>
@@ -5153,12 +5684,12 @@
         <f>Inputs!A4</f>
         <v>2E-3</v>
       </c>
-      <c r="K30" s="45">
+      <c r="K30" s="43">
         <f>E36*G30</f>
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="L30" s="46"/>
-      <c r="M30" s="57"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="55"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.75">
       <c r="B31" s="2"/>
@@ -5166,12 +5697,12 @@
         <v>9</v>
       </c>
       <c r="J31" s="2"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="39">
+      <c r="K31" s="35"/>
+      <c r="L31" s="37">
         <f>K30*K32</f>
         <v>0.41000000000000003</v>
       </c>
-      <c r="M31" s="40" t="s">
+      <c r="M31" s="38" t="s">
         <v>570</v>
       </c>
     </row>
@@ -5183,21 +5714,21 @@
         <v>1000</v>
       </c>
       <c r="J32" s="2"/>
-      <c r="K32" s="47">
+      <c r="K32" s="45">
         <f>E38+G32</f>
         <v>1025</v>
       </c>
-      <c r="L32" s="48"/>
-      <c r="M32" s="58"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="56"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="G33" s="9"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="53"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="51"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A34" s="2"/>
@@ -5213,12 +5744,12 @@
         <v>0.1</v>
       </c>
       <c r="J34" s="2"/>
-      <c r="K34" s="45">
+      <c r="K34" s="43">
         <f>E36*G36*I34</f>
         <v>7.400000000000001E-4</v>
       </c>
-      <c r="L34" s="46"/>
-      <c r="M34" s="57"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="55"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A35" s="2"/>
@@ -5233,12 +5764,12 @@
         <v>12</v>
       </c>
       <c r="J35" s="2"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="39">
+      <c r="K35" s="35"/>
+      <c r="L35" s="37">
         <f>K34*K36</f>
         <v>0.32042000000000004</v>
       </c>
-      <c r="M35" s="40" t="s">
+      <c r="M35" s="38" t="s">
         <v>571</v>
       </c>
     </row>
@@ -5255,12 +5786,12 @@
         <f>Inputs!A15</f>
         <v>333</v>
       </c>
-      <c r="K36" s="47">
+      <c r="K36" s="45">
         <f>E38+G38+I36</f>
         <v>433</v>
       </c>
-      <c r="L36" s="48"/>
-      <c r="M36" s="58"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="56"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.75">
       <c r="E37" s="14" t="s">
@@ -5270,9 +5801,9 @@
       <c r="G37" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="K37" s="55"/>
-      <c r="L37" s="54"/>
-      <c r="M37" s="53"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="52"/>
+      <c r="M37" s="51"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.75">
       <c r="C38" s="2"/>
@@ -5290,12 +5821,12 @@
         <f>1-I34</f>
         <v>0.9</v>
       </c>
-      <c r="K38" s="45">
+      <c r="K38" s="43">
         <f>E36*G36*I38</f>
         <v>6.6600000000000001E-3</v>
       </c>
-      <c r="L38" s="46"/>
-      <c r="M38" s="57"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="55"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.75">
       <c r="C39" s="2"/>
@@ -5307,12 +5838,12 @@
       <c r="I39" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K39" s="37"/>
-      <c r="L39" s="39">
+      <c r="K39" s="35"/>
+      <c r="L39" s="37">
         <f>K38*K40</f>
         <v>0.66600000000000004</v>
       </c>
-      <c r="M39" s="40" t="s">
+      <c r="M39" s="38" t="s">
         <v>572</v>
       </c>
     </row>
@@ -5320,17 +5851,17 @@
       <c r="I40" s="5">
         <v>0</v>
       </c>
-      <c r="K40" s="47">
+      <c r="K40" s="45">
         <f>E38+G38+I40</f>
         <v>100</v>
       </c>
-      <c r="L40" s="48"/>
-      <c r="M40" s="58"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="56"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="K41" s="55"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="53"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="52"/>
+      <c r="M41" s="51"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.75">
       <c r="C42" s="2"/>
@@ -5343,12 +5874,12 @@
         <f>Inputs!A6</f>
         <v>0.02</v>
       </c>
-      <c r="K42" s="45">
+      <c r="K42" s="43">
         <f>E36*G44*I42</f>
         <v>3.8440000000000002E-3</v>
       </c>
-      <c r="L42" s="46"/>
-      <c r="M42" s="57"/>
+      <c r="L42" s="44"/>
+      <c r="M42" s="55"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.75">
       <c r="C43" s="11" t="s">
@@ -5362,12 +5893,12 @@
       <c r="I43" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="K43" s="37"/>
-      <c r="L43" s="39">
+      <c r="K43" s="35"/>
+      <c r="L43" s="37">
         <f>K42*K44</f>
         <v>1.376152</v>
       </c>
-      <c r="M43" s="40" t="s">
+      <c r="M43" s="38" t="s">
         <v>573</v>
       </c>
     </row>
@@ -5384,20 +5915,20 @@
         <f>Inputs!A15</f>
         <v>333</v>
       </c>
-      <c r="K44" s="47">
+      <c r="K44" s="45">
         <f>E38+G46+I44</f>
         <v>358</v>
       </c>
-      <c r="L44" s="48"/>
-      <c r="M44" s="58"/>
+      <c r="L44" s="46"/>
+      <c r="M44" s="56"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.75">
       <c r="G45" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="K45" s="55"/>
-      <c r="L45" s="54"/>
-      <c r="M45" s="53"/>
+      <c r="K45" s="53"/>
+      <c r="L45" s="52"/>
+      <c r="M45" s="51"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.75">
       <c r="C46" s="2"/>
@@ -5412,12 +5943,12 @@
         <f>1-I42</f>
         <v>0.98</v>
       </c>
-      <c r="K46" s="45">
+      <c r="K46" s="43">
         <f>E36*G44*I46</f>
         <v>0.188356</v>
       </c>
-      <c r="L46" s="46"/>
-      <c r="M46" s="57"/>
+      <c r="L46" s="44"/>
+      <c r="M46" s="55"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.75">
       <c r="D47" s="2"/>
@@ -5428,12 +5959,12 @@
       <c r="I47" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K47" s="37"/>
-      <c r="L47" s="39">
+      <c r="K47" s="35"/>
+      <c r="L47" s="37">
         <f>K46*K48</f>
         <v>4.7088999999999999</v>
       </c>
-      <c r="M47" s="40" t="s">
+      <c r="M47" s="38" t="s">
         <v>574</v>
       </c>
     </row>
@@ -5446,12 +5977,12 @@
       <c r="I48" s="5">
         <v>0</v>
       </c>
-      <c r="K48" s="47">
+      <c r="K48" s="45">
         <f>E38+G46+I48</f>
         <v>25</v>
       </c>
-      <c r="L48" s="48"/>
-      <c r="M48" s="58"/>
+      <c r="L48" s="46"/>
+      <c r="M48" s="56"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.75">
       <c r="C49" s="2"/>
@@ -5460,32 +5991,32 @@
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
-      <c r="K49" s="55"/>
-      <c r="L49" s="54"/>
-      <c r="M49" s="53"/>
+      <c r="K49" s="53"/>
+      <c r="L49" s="52"/>
+      <c r="M49" s="51"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.75">
       <c r="E50" s="3">
         <f>1-E36</f>
         <v>0.8</v>
       </c>
-      <c r="K50" s="37">
+      <c r="K50" s="35">
         <f>E50</f>
         <v>0.8</v>
       </c>
-      <c r="L50" s="38"/>
-      <c r="M50" s="42"/>
+      <c r="L50" s="36"/>
+      <c r="M50" s="40"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.75">
       <c r="E51" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="K51" s="37"/>
-      <c r="L51" s="39">
+      <c r="K51" s="35"/>
+      <c r="L51" s="37">
         <f>K50*K52</f>
         <v>0</v>
       </c>
-      <c r="M51" s="42" t="s">
+      <c r="M51" s="40" t="s">
         <v>575</v>
       </c>
     </row>
@@ -5493,12 +6024,12 @@
       <c r="E52" s="5">
         <v>0</v>
       </c>
-      <c r="K52" s="43">
+      <c r="K52" s="41">
         <f>E52</f>
         <v>0</v>
       </c>
-      <c r="L52" s="44"/>
-      <c r="M52" s="61"/>
+      <c r="L52" s="42"/>
+      <c r="M52" s="59"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.75">
       <c r="K53" s="10"/>
@@ -5705,7 +6236,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A3F7162-4E7F-442F-9BC8-BFA20ED5CB60}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -5764,7 +6295,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E82CE749-8221-4E83-8B4A-C9616463FEEC}">
   <dimension ref="A1:A676"/>
   <sheetViews>

--- a/Sagacity_0.2.xlsx
+++ b/Sagacity_0.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Documents\GitHub\sagacity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6CE8F0-2A22-4999-BB3B-F2314366FB2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F36EA8-E28E-41E8-8810-E92D1AB45C87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{D0780601-15C0-441A-91EF-C09DCE388F2C}"/>
   </bookViews>
@@ -3063,6 +3063,9 @@
     <xf numFmtId="1" fontId="4" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3099,9 +3102,6 @@
     <xf numFmtId="0" fontId="17" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -4647,13 +4647,13 @@
   <dimension ref="A3:N36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
     <row r="3" spans="14:14" x14ac:dyDescent="0.75">
-      <c r="N3" s="90" t="s">
+      <c r="N3" s="78" t="s">
         <v>589</v>
       </c>
     </row>
@@ -4668,7 +4668,7 @@
       </c>
     </row>
     <row r="7" spans="14:14" x14ac:dyDescent="0.75">
-      <c r="N7" s="90" t="s">
+      <c r="N7" s="78" t="s">
         <v>590</v>
       </c>
     </row>
@@ -4703,42 +4703,42 @@
       </c>
     </row>
     <row r="15" spans="14:14" x14ac:dyDescent="0.75">
-      <c r="N15" s="91" t="s">
+      <c r="N15" s="79" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="16" spans="14:14" x14ac:dyDescent="0.75">
-      <c r="N16" s="91" t="s">
+      <c r="N16" s="79" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="N17" s="91" t="s">
+      <c r="N17" s="79" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="N18" s="91" t="s">
+      <c r="N18" s="79" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="N19" s="91" t="s">
+      <c r="N19" s="79" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="N20" s="91" t="s">
+      <c r="N20" s="79" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="N22" s="92" t="s">
+      <c r="N22" s="80" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="N23" s="92" t="s">
+      <c r="N23" s="80" t="s">
         <v>588</v>
       </c>
     </row>
@@ -4820,8 +4820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C9A8AC-38C5-4AA5-915B-063DC1788661}">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A30" sqref="A19:A30"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -5178,8 +5178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7D3ECE-B45F-4CB4-A7B2-CD0816DC0E04}">
   <dimension ref="A1:M86"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -5221,12 +5221,12 @@
       <c r="M2" s="55"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="81" t="s">
         <v>549</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="80"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="83"/>
       <c r="G3" s="14" t="s">
         <v>9</v>
       </c>
@@ -5240,12 +5240,12 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="84" t="s">
         <v>550</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="83"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="86"/>
       <c r="G4" s="9">
         <f>Inputs!A13</f>
         <v>1000</v>
@@ -5258,24 +5258,24 @@
       <c r="M4" s="56"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="84" t="s">
         <v>578</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="83"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="86"/>
       <c r="K5" s="49"/>
       <c r="L5" s="50"/>
       <c r="M5" s="51"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A6" s="84" t="str">
+      <c r="A6" s="87" t="str">
         <f>IF(C18&lt;C44,"You should get vaccinated","You should NOT get vaccinated")</f>
         <v>You should get vaccinated</v>
       </c>
-      <c r="B6" s="85"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="86"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="89"/>
       <c r="I6" s="4">
         <f>Inputs!A7+Inputs!A8</f>
         <v>0.12000000000000001</v>
@@ -5288,10 +5288,10 @@
       <c r="M6" s="55"/>
     </row>
     <row r="7" spans="1:13" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A7" s="87"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="89"/>
+      <c r="A7" s="90"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="92"/>
       <c r="I7" s="14" t="s">
         <v>12</v>
       </c>
@@ -6241,7 +6241,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>

--- a/Sagacity_0.2.xlsx
+++ b/Sagacity_0.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Documents\GitHub\sagacity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F36EA8-E28E-41E8-8810-E92D1AB45C87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF02520-CE84-47A0-A1E5-0D8E4EF58826}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{D0780601-15C0-441A-91EF-C09DCE388F2C}"/>
   </bookViews>
@@ -2127,9 +2127,6 @@
     <t xml:space="preserve">   your family, friends and society</t>
   </si>
   <si>
-    <t>events are lower scores relative to you dying from Covid-19)</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -2355,9 +2352,6 @@
   </si>
   <si>
     <r>
-      <t>(</t>
-    </r>
-    <r>
       <rPr>
         <b/>
         <i/>
@@ -2380,6 +2374,9 @@
       </rPr>
       <t>. All other risk</t>
     </r>
+  </si>
+  <si>
+    <t>events are lower scores relative to you dying from Covid-19.</t>
   </si>
 </sst>
 </file>
@@ -4654,7 +4651,7 @@
   <sheetData>
     <row r="3" spans="14:14" x14ac:dyDescent="0.75">
       <c r="N3" s="78" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="4" spans="14:14" x14ac:dyDescent="0.75">
@@ -4669,7 +4666,7 @@
     </row>
     <row r="7" spans="14:14" x14ac:dyDescent="0.75">
       <c r="N7" s="78" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="8" spans="14:14" x14ac:dyDescent="0.75">
@@ -4694,7 +4691,7 @@
     </row>
     <row r="12" spans="14:14" x14ac:dyDescent="0.75">
       <c r="N12" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="14" spans="14:14" x14ac:dyDescent="0.75">
@@ -4704,27 +4701,27 @@
     </row>
     <row r="15" spans="14:14" x14ac:dyDescent="0.75">
       <c r="N15" s="79" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="16" spans="14:14" x14ac:dyDescent="0.75">
       <c r="N16" s="79" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.75">
       <c r="N17" s="79" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.75">
       <c r="N18" s="79" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.75">
       <c r="N19" s="79" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.75">
@@ -4734,12 +4731,12 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.75">
       <c r="N22" s="80" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.75">
       <c r="N23" s="80" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.75">

--- a/Sagacity_0.2.xlsx
+++ b/Sagacity_0.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Documents\GitHub\sagacity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF02520-CE84-47A0-A1E5-0D8E4EF58826}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431934B6-145A-4314-B058-F0F65BD5C6D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{D0780601-15C0-441A-91EF-C09DCE388F2C}"/>
   </bookViews>
@@ -3131,20 +3131,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>37732</xdr:rowOff>
+      <xdr:colOff>344251</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D7D876D-33B5-4CC4-BF89-5C468E611975}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B762BCA-0608-4583-B2C8-2FDB6D27D3AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3160,8 +3160,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1"/>
-          <a:ext cx="7743825" cy="4346206"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7659451" cy="4283075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>

--- a/Sagacity_0.2.xlsx
+++ b/Sagacity_0.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Documents\GitHub\sagacity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431934B6-145A-4314-B058-F0F65BD5C6D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546F0133-9D4A-4ECE-8BC4-DAF98535FE8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{D0780601-15C0-441A-91EF-C09DCE388F2C}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="598">
   <si>
     <t>Probability of severe illness / hospitalization from Covid-19</t>
   </si>
@@ -4641,10 +4641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FED7A13-E933-4564-86CB-A1CE9990B42E}">
-  <dimension ref="A3:N36"/>
+  <dimension ref="A3:N40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -4800,6 +4800,21 @@
         <v>544</v>
       </c>
     </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A38" s="33" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A39" s="33" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A40" s="34" t="s">
+        <v>547</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A26" r:id="rId1" display="Download more FREE Statistical PERT templates at https://www.statisticalpert.com" xr:uid="{4AF9D1F8-0631-4DD8-BAEB-0DC3D14F2AA4}"/>
@@ -4807,9 +4822,10 @@
     <hyperlink ref="A28" r:id="rId3" xr:uid="{BA9C752B-341A-4076-9CC1-EEDEC270BC5A}"/>
     <hyperlink ref="A30" r:id="rId4" location="newsletter" display="Follow Statistical PERT on Twitter to learn when new updates are released" xr:uid="{008BDD1B-03D9-4E50-91AD-8858755AFA96}"/>
     <hyperlink ref="A29" r:id="rId5" display="Connect with me on LinkedIn" xr:uid="{8D0A7987-6C46-4807-B8C3-A8CE983FA1C0}"/>
+    <hyperlink ref="A40" r:id="rId6" display="See the GNU General Public License for more details (http://www.gnu.org/licenses/)." xr:uid="{42006A7A-DC9F-4E36-B207-4C4C12D3C390}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId6"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -4817,8 +4833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C9A8AC-38C5-4AA5-915B-063DC1788661}">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView showGridLines="0" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
